--- a/app/data/constructor/11.12.2020 (1).xlsx
+++ b/app/data/constructor/11.12.2020 (1).xlsx
@@ -520,7 +520,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>1</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>1</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>1</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>1</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>1</v>
@@ -1100,11 +1100,11 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>Сулугуни "ВкусВилл", 45%, 0,28 кг, т/ф</t>
+          <t>Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>759</v>
+        <v>850</v>
       </c>
       <c r="H12" s="2">
         <f>IF(M12 - M11 = 0, "", M12 - M11)</f>
@@ -1129,325 +1129,337 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H13" s="3">
+        <f>IF(M13 - M12 = 0, "", M13 - M12)</f>
+        <v/>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J13" s="3">
+        <f>IF(I13 = "-", -D12,G13)</f>
+        <v/>
+      </c>
+      <c r="K13" s="3">
+        <f>IF(I13 = "-", SUM(J$2:J13), 0)</f>
+        <v/>
+      </c>
+      <c r="L13" s="3">
+        <f>IF(I13="-",1,0)</f>
+        <v/>
+      </c>
+      <c r="M13" s="3">
+        <f>IF(K13 = 0, M12, K13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B14" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">2.7 Альче </t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>850</v>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="D14" s="2" t="n">
+        <v>850</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>Сулугуни</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>Сулугуни "Умалат", 45%, 0,28 кг, т/ф, (8 шт)</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="H13" s="2">
-        <f>IF(M13 - M12 = 0, "", M13 - M12)</f>
-        <v/>
-      </c>
-      <c r="I13" s="2" t="inlineStr"/>
-      <c r="J13" s="2">
-        <f>IF(I13 = "-", -D12,G13)</f>
-        <v/>
-      </c>
-      <c r="K13" s="2">
-        <f>IF(I13 = "-", SUM(J$2:J13), 0)</f>
-        <v/>
-      </c>
-      <c r="L13" s="2">
-        <f>IF(I13="-",1,0)</f>
-        <v/>
-      </c>
-      <c r="M13" s="2">
-        <f>IF(K13 = 0, M12, K13)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H14" s="3">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>Сулугуни  "Умалат", 45%, 0,37 кг, т/ф, (6 шт)</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>850</v>
+      </c>
+      <c r="H14" s="2">
         <f>IF(M14 - M13 = 0, "", M14 - M13)</f>
         <v/>
       </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="2" t="inlineStr"/>
+      <c r="J14" s="2">
         <f>IF(I14 = "-", -D13,G14)</f>
         <v/>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <f>IF(I14 = "-", SUM(J$2:J14), 0)</f>
         <v/>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="2">
         <f>IF(I14="-",1,0)</f>
         <v/>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="2">
         <f>IF(K14 = 0, M13, K14)</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H15" s="3">
+        <f>IF(M15 - M14 = 0, "", M15 - M14)</f>
+        <v/>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J15" s="3">
+        <f>IF(I15 = "-", -D14,G15)</f>
+        <v/>
+      </c>
+      <c r="K15" s="3">
+        <f>IF(I15 = "-", SUM(J$2:J15), 0)</f>
+        <v/>
+      </c>
+      <c r="L15" s="3">
+        <f>IF(I15="-",1,0)</f>
+        <v/>
+      </c>
+      <c r="M15" s="3">
+        <f>IF(K15 = 0, M14, K15)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B16" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">2.7 Альче </t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>850</v>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>Сулугуни</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>Сулугуни "ВкусВилл", 45%, 0,28 кг, т/ф</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="H15" s="2">
-        <f>IF(M15 - M14 = 0, "", M15 - M14)</f>
-        <v/>
-      </c>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2">
-        <f>IF(I15 = "-", -D14,G15)</f>
-        <v/>
-      </c>
-      <c r="K15" s="2">
-        <f>IF(I15 = "-", SUM(J$2:J15), 0)</f>
-        <v/>
-      </c>
-      <c r="L15" s="2">
-        <f>IF(I15="-",1,0)</f>
-        <v/>
-      </c>
-      <c r="M15" s="2">
-        <f>IF(K15 = 0, M14, K15)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B16" s="2" t="n">
+      <c r="D16" s="4" t="n">
+        <v>850</v>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>Для пиццы</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у, (8 шт)</t>
+        </is>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>850</v>
+      </c>
+      <c r="H16" s="4">
+        <f>IF(M16 - M15 = 0, "", M16 - M15)</f>
+        <v/>
+      </c>
+      <c r="I16" s="4" t="inlineStr"/>
+      <c r="J16" s="4">
+        <f>IF(I16 = "-", -D15,G16)</f>
+        <v/>
+      </c>
+      <c r="K16" s="4">
+        <f>IF(I16 = "-", SUM(J$2:J16), 0)</f>
+        <v/>
+      </c>
+      <c r="L16" s="4">
+        <f>IF(I16="-",1,0)</f>
+        <v/>
+      </c>
+      <c r="M16" s="4">
+        <f>IF(K16 = 0, M15, K16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H17" s="3">
+        <f>IF(M17 - M16 = 0, "", M17 - M16)</f>
+        <v/>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J17" s="3">
+        <f>IF(I17 = "-", -D16,G17)</f>
+        <v/>
+      </c>
+      <c r="K17" s="3">
+        <f>IF(I17 = "-", SUM(J$2:J17), 0)</f>
+        <v/>
+      </c>
+      <c r="L17" s="3">
+        <f>IF(I17="-",1,0)</f>
+        <v/>
+      </c>
+      <c r="M17" s="3">
+        <f>IF(K17 = 0, M16, K17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B18" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">2.7 Альче </t>
         </is>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>850</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>Сулугуни</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>699</v>
-      </c>
-      <c r="H16" s="2">
-        <f>IF(M16 - M15 = 0, "", M16 - M15)</f>
-        <v/>
-      </c>
-      <c r="I16" s="2" t="inlineStr"/>
-      <c r="J16" s="2">
-        <f>IF(I16 = "-", -D15,G16)</f>
-        <v/>
-      </c>
-      <c r="K16" s="2">
-        <f>IF(I16 = "-", SUM(J$2:J16), 0)</f>
-        <v/>
-      </c>
-      <c r="L16" s="2">
-        <f>IF(I16="-",1,0)</f>
-        <v/>
-      </c>
-      <c r="M16" s="2">
-        <f>IF(K16 = 0, M15, K16)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2.7 Альче </t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>850</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>Сулугуни</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>Сулугуни "Умалат", 45%, 0,2 кг, т/ф, (9 шт)</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>126</v>
-      </c>
-      <c r="H17" s="2">
-        <f>IF(M17 - M16 = 0, "", M17 - M16)</f>
-        <v/>
-      </c>
-      <c r="I17" s="2" t="inlineStr"/>
-      <c r="J17" s="2">
-        <f>IF(I17 = "-", -D16,G17)</f>
-        <v/>
-      </c>
-      <c r="K17" s="2">
-        <f>IF(I17 = "-", SUM(J$2:J17), 0)</f>
-        <v/>
-      </c>
-      <c r="L17" s="2">
-        <f>IF(I17="-",1,0)</f>
-        <v/>
-      </c>
-      <c r="M17" s="2">
-        <f>IF(K17 = 0, M16, K17)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H18" s="3">
+      <c r="D18" s="4" t="n">
+        <v>850</v>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>Для пиццы</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>Моцарелла палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>770.4</v>
+      </c>
+      <c r="H18" s="4">
         <f>IF(M18 - M17 = 0, "", M18 - M17)</f>
         <v/>
       </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J18" s="3">
+      <c r="I18" s="4" t="inlineStr"/>
+      <c r="J18" s="4">
         <f>IF(I18 = "-", -D17,G18)</f>
         <v/>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="4">
         <f>IF(I18 = "-", SUM(J$2:J18), 0)</f>
         <v/>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="4">
         <f>IF(I18="-",1,0)</f>
         <v/>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="4">
         <f>IF(K18 = 0, M17, K18)</f>
         <v/>
       </c>
@@ -1474,11 +1486,11 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>Сулугуни  "Умалат", 45%, 0,37 кг, т/ф, (6 шт)</t>
+          <t>Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>477</v>
+        <v>79.60000000000002</v>
       </c>
       <c r="H19" s="2">
         <f>IF(M19 - M18 = 0, "", M19 - M18)</f>
@@ -1503,275 +1515,275 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B20" s="2" t="n">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" s="3">
+        <f>IF(M20 - M19 = 0, "", M20 - M19)</f>
+        <v/>
+      </c>
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J20" s="3">
+        <f>IF(I20 = "-", -D19,G20)</f>
+        <v/>
+      </c>
+      <c r="K20" s="3">
+        <f>IF(I20 = "-", SUM(J$2:J20), 0)</f>
+        <v/>
+      </c>
+      <c r="L20" s="3">
+        <f>IF(I20="-",1,0)</f>
+        <v/>
+      </c>
+      <c r="M20" s="3">
+        <f>IF(K20 = 0, M19, K20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">2.7 Альче </t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>850</v>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="D21" s="4" t="n">
+        <v>850</v>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>Для пиццы</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>66.15999999999997</v>
+      </c>
+      <c r="H21" s="4">
+        <f>IF(M21 - M20 = 0, "", M21 - M20)</f>
+        <v/>
+      </c>
+      <c r="I21" s="4" t="inlineStr"/>
+      <c r="J21" s="4">
+        <f>IF(I21 = "-", -D20,G21)</f>
+        <v/>
+      </c>
+      <c r="K21" s="4">
+        <f>IF(I21 = "-", SUM(J$2:J21), 0)</f>
+        <v/>
+      </c>
+      <c r="L21" s="4">
+        <f>IF(I21="-",1,0)</f>
+        <v/>
+      </c>
+      <c r="M21" s="4">
+        <f>IF(K21 = 0, M20, K21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.7 Альче </t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>850</v>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>Сулугуни</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>373</v>
-      </c>
-      <c r="H20" s="2">
-        <f>IF(M20 - M19 = 0, "", M20 - M19)</f>
-        <v/>
-      </c>
-      <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2">
-        <f>IF(I20 = "-", -D19,G20)</f>
-        <v/>
-      </c>
-      <c r="K20" s="2">
-        <f>IF(I20 = "-", SUM(J$2:J20), 0)</f>
-        <v/>
-      </c>
-      <c r="L20" s="2">
-        <f>IF(I20="-",1,0)</f>
-        <v/>
-      </c>
-      <c r="M20" s="2">
-        <f>IF(K20 = 0, M19, K20)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H21" s="3">
-        <f>IF(M21 - M20 = 0, "", M21 - M20)</f>
-        <v/>
-      </c>
-      <c r="I21" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J21" s="3">
-        <f>IF(I21 = "-", -D20,G21)</f>
-        <v/>
-      </c>
-      <c r="K21" s="3">
-        <f>IF(I21 = "-", SUM(J$2:J21), 0)</f>
-        <v/>
-      </c>
-      <c r="L21" s="3">
-        <f>IF(I21="-",1,0)</f>
-        <v/>
-      </c>
-      <c r="M21" s="3">
-        <f>IF(K21 = 0, M20, K21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B22" s="4" t="n">
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>Сулугуни "ВкусВилл", 45%, 0,28 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>783.84</v>
+      </c>
+      <c r="H22" s="2">
+        <f>IF(M22 - M21 = 0, "", M22 - M21)</f>
+        <v/>
+      </c>
+      <c r="I22" s="2" t="inlineStr"/>
+      <c r="J22" s="2">
+        <f>IF(I22 = "-", -D21,G22)</f>
+        <v/>
+      </c>
+      <c r="K22" s="2">
+        <f>IF(I22 = "-", SUM(J$2:J22), 0)</f>
+        <v/>
+      </c>
+      <c r="L22" s="2">
+        <f>IF(I22="-",1,0)</f>
+        <v/>
+      </c>
+      <c r="M22" s="2">
+        <f>IF(K22 = 0, M21, K22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H23" s="3">
+        <f>IF(M23 - M22 = 0, "", M23 - M22)</f>
+        <v/>
+      </c>
+      <c r="I23" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J23" s="3">
+        <f>IF(I23 = "-", -D22,G23)</f>
+        <v/>
+      </c>
+      <c r="K23" s="3">
+        <f>IF(I23 = "-", SUM(J$2:J23), 0)</f>
+        <v/>
+      </c>
+      <c r="L23" s="3">
+        <f>IF(I23="-",1,0)</f>
+        <v/>
+      </c>
+      <c r="M23" s="3">
+        <f>IF(K23 = 0, M22, K23)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B24" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">2.7 Альче </t>
         </is>
       </c>
-      <c r="D22" s="4" t="n">
-        <v>850</v>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="D24" s="4" t="n">
+        <v>850</v>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
         <is>
           <t>Для пиццы</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
-        </is>
-      </c>
-      <c r="G22" s="4" t="n">
-        <v>375</v>
-      </c>
-      <c r="H22" s="4">
-        <f>IF(M22 - M21 = 0, "", M22 - M21)</f>
-        <v/>
-      </c>
-      <c r="I22" s="4" t="inlineStr"/>
-      <c r="J22" s="4">
-        <f>IF(I22 = "-", -D21,G22)</f>
-        <v/>
-      </c>
-      <c r="K22" s="4">
-        <f>IF(I22 = "-", SUM(J$2:J22), 0)</f>
-        <v/>
-      </c>
-      <c r="L22" s="4">
-        <f>IF(I22="-",1,0)</f>
-        <v/>
-      </c>
-      <c r="M22" s="4">
-        <f>IF(K22 = 0, M21, K22)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2.7 Альче </t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>850</v>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>Сулугуни</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>Сулугуни  "Умалат", 45%, 0,37 кг, т/ф, (6 шт)</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>475</v>
-      </c>
-      <c r="H23" s="2">
-        <f>IF(M23 - M22 = 0, "", M23 - M22)</f>
-        <v/>
-      </c>
-      <c r="I23" s="2" t="inlineStr"/>
-      <c r="J23" s="2">
-        <f>IF(I23 = "-", -D22,G23)</f>
-        <v/>
-      </c>
-      <c r="K23" s="2">
-        <f>IF(I23 = "-", SUM(J$2:J23), 0)</f>
-        <v/>
-      </c>
-      <c r="L23" s="2">
-        <f>IF(I23="-",1,0)</f>
-        <v/>
-      </c>
-      <c r="M23" s="2">
-        <f>IF(K23 = 0, M22, K23)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F24" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G24" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H24" s="3">
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>Моцарелла "Unagrande", 45%, 0,12 кг, ф/п (кубики)</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>7.199999999999998</v>
+      </c>
+      <c r="H24" s="4">
         <f>IF(M24 - M23 = 0, "", M24 - M23)</f>
         <v/>
       </c>
-      <c r="I24" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J24" s="3">
+      <c r="I24" s="4" t="inlineStr"/>
+      <c r="J24" s="4">
         <f>IF(I24 = "-", -D23,G24)</f>
         <v/>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="4">
         <f>IF(I24 = "-", SUM(J$2:J24), 0)</f>
         <v/>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="4">
         <f>IF(I24="-",1,0)</f>
         <v/>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="4">
         <f>IF(K24 = 0, M23, K24)</f>
         <v/>
       </c>
@@ -1798,11 +1810,11 @@
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у, (8 шт)</t>
+          <t>Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
-        <v>773</v>
+        <v>385.48</v>
       </c>
       <c r="H25" s="4">
         <f>IF(M25 - M24 = 0, "", M25 - M24)</f>
@@ -1827,213 +1839,201 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
+      <c r="A26" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">2.7 Альче </t>
         </is>
       </c>
-      <c r="D26" s="4" t="n">
-        <v>850</v>
-      </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>Для пиццы</t>
-        </is>
-      </c>
-      <c r="F26" s="4" t="inlineStr">
-        <is>
-          <t>Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
-        </is>
-      </c>
-      <c r="G26" s="4" t="n">
-        <v>77</v>
-      </c>
-      <c r="H26" s="4">
+      <c r="D26" s="2" t="n">
+        <v>850</v>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>Сулугуни</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>Сулугуни  "Умалат", 45%, 0,37 кг, т/ф, (6 шт)</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>98.20000000000027</v>
+      </c>
+      <c r="H26" s="2">
         <f>IF(M26 - M25 = 0, "", M26 - M25)</f>
         <v/>
       </c>
-      <c r="I26" s="4" t="inlineStr"/>
-      <c r="J26" s="4">
+      <c r="I26" s="2" t="inlineStr"/>
+      <c r="J26" s="2">
         <f>IF(I26 = "-", -D25,G26)</f>
         <v/>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="2">
         <f>IF(I26 = "-", SUM(J$2:J26), 0)</f>
         <v/>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="2">
         <f>IF(I26="-",1,0)</f>
         <v/>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="2">
         <f>IF(K26 = 0, M25, K26)</f>
         <v/>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F27" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G27" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H27" s="3">
+      <c r="A27" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.7 Альче </t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>850</v>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>Сулугуни</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>141.9999999999999</v>
+      </c>
+      <c r="H27" s="2">
         <f>IF(M27 - M26 = 0, "", M27 - M26)</f>
         <v/>
       </c>
-      <c r="I27" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J27" s="3">
+      <c r="I27" s="2" t="inlineStr"/>
+      <c r="J27" s="2">
         <f>IF(I27 = "-", -D26,G27)</f>
         <v/>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <f>IF(I27 = "-", SUM(J$2:J27), 0)</f>
         <v/>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="2">
         <f>IF(I27="-",1,0)</f>
         <v/>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="2">
         <f>IF(K27 = 0, M26, K27)</f>
         <v/>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="B28" s="4" t="n">
+      <c r="A28" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B28" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">2.7 Альче </t>
         </is>
       </c>
-      <c r="D28" s="4" t="n">
-        <v>850</v>
-      </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>Для пиццы</t>
-        </is>
-      </c>
-      <c r="F28" s="4" t="inlineStr">
-        <is>
-          <t>Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у, (8 шт)</t>
-        </is>
-      </c>
-      <c r="G28" s="4" t="n">
-        <v>627</v>
-      </c>
-      <c r="H28" s="4">
+      <c r="D28" s="2" t="n">
+        <v>850</v>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>Сулугуни</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>Сулугуни "Умалат", 45%, 0,2 кг, т/ф, (9 шт)</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="H28" s="2">
         <f>IF(M28 - M27 = 0, "", M28 - M27)</f>
         <v/>
       </c>
-      <c r="I28" s="4" t="inlineStr"/>
-      <c r="J28" s="4">
+      <c r="I28" s="2" t="inlineStr"/>
+      <c r="J28" s="2">
         <f>IF(I28 = "-", -D27,G28)</f>
         <v/>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="2">
         <f>IF(I28 = "-", SUM(J$2:J28), 0)</f>
         <v/>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="2">
         <f>IF(I28="-",1,0)</f>
         <v/>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="2">
         <f>IF(K28 = 0, M27, K28)</f>
         <v/>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="B29" s="4" t="n">
+      <c r="A29" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">2.7 Альче </t>
         </is>
       </c>
-      <c r="D29" s="4" t="n">
-        <v>850</v>
-      </c>
-      <c r="E29" s="4" t="inlineStr">
-        <is>
-          <t>Для пиццы</t>
-        </is>
-      </c>
-      <c r="F29" s="4" t="inlineStr">
-        <is>
-          <t>Моцарелла палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
-        </is>
-      </c>
-      <c r="G29" s="4" t="n">
-        <v>223</v>
-      </c>
-      <c r="H29" s="4">
+      <c r="D29" s="2" t="n">
+        <v>850</v>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>Сулугуни</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>Сулугуни "Умалат", 45%, 0,28 кг, т/ф, (8 шт)</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>91.11999999999989</v>
+      </c>
+      <c r="H29" s="2">
         <f>IF(M29 - M28 = 0, "", M29 - M28)</f>
         <v/>
       </c>
-      <c r="I29" s="4" t="inlineStr"/>
-      <c r="J29" s="4">
+      <c r="I29" s="2" t="inlineStr"/>
+      <c r="J29" s="2">
         <f>IF(I29 = "-", -D28,G29)</f>
         <v/>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="2">
         <f>IF(I29 = "-", SUM(J$2:J29), 0)</f>
         <v/>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="2">
         <f>IF(I29="-",1,0)</f>
         <v/>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="2">
         <f>IF(K29 = 0, M28, K29)</f>
         <v/>
       </c>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="4" t="n">
         <v>1</v>
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="G31" s="4" t="n">
-        <v>303</v>
+        <v>295.8200000000003</v>
       </c>
       <c r="H31" s="4">
         <f>IF(M31 - M30 = 0, "", M31 - M30)</f>
@@ -2152,7 +2152,7 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" s="4" t="n">
         <v>1</v>
@@ -2172,11 +2172,11 @@
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>Моцарелла палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
+          <t>Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у, (8 шт)</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="H32" s="4">
         <f>IF(M32 - M31 = 0, "", M32 - M31)</f>
@@ -2201,120 +2201,120 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E33" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F33" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G33" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H33" s="3">
+      <c r="A33" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.7 Альче </t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>850</v>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>Сулугуни</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>Сулугуни  "Умалат", 45%, 0,37 кг, т/ф, (6 шт)</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>4.179999999999723</v>
+      </c>
+      <c r="H33" s="2">
         <f>IF(M33 - M32 = 0, "", M33 - M32)</f>
         <v/>
       </c>
-      <c r="I33" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J33" s="3">
+      <c r="I33" s="2" t="inlineStr"/>
+      <c r="J33" s="2">
         <f>IF(I33 = "-", -D32,G33)</f>
         <v/>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="2">
         <f>IF(I33 = "-", SUM(J$2:J33), 0)</f>
         <v/>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="2">
         <f>IF(I33="-",1,0)</f>
         <v/>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="2">
         <f>IF(K33 = 0, M32, K33)</f>
         <v/>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="B34" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C34" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2.7 Сакко </t>
-        </is>
-      </c>
-      <c r="D34" s="4" t="n">
-        <v>850</v>
-      </c>
-      <c r="E34" s="4" t="inlineStr">
-        <is>
-          <t>Для пиццы</t>
-        </is>
-      </c>
-      <c r="F34" s="4" t="inlineStr">
-        <is>
-          <t>Моцарелла "Pretto" (для бутербродов), 45%, 0,2 кг, т/ф, (9 шт)</t>
-        </is>
-      </c>
-      <c r="G34" s="4" t="n">
-        <v>625</v>
-      </c>
-      <c r="H34" s="4">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="3">
         <f>IF(M34 - M33 = 0, "", M34 - M33)</f>
         <v/>
       </c>
-      <c r="I34" s="4" t="inlineStr"/>
-      <c r="J34" s="4">
+      <c r="I34" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="3">
         <f>IF(I34 = "-", -D33,G34)</f>
         <v/>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="3">
         <f>IF(I34 = "-", SUM(J$2:J34), 0)</f>
         <v/>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="3">
         <f>IF(I34="-",1,0)</f>
         <v/>
       </c>
-      <c r="M34" s="4">
+      <c r="M34" s="3">
         <f>IF(K34 = 0, M33, K34)</f>
         <v/>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" s="4" t="n">
         <v>2</v>
@@ -2334,11 +2334,11 @@
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>Моцарелла для пиццы "Фермерская коллекция", 45%, 0,2 кг, т/ф</t>
+          <t>Моцарелла "Pretto" (для бутербродов), 45%, 0,2 кг, т/ф, (9 шт)</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
-        <v>160</v>
+        <v>763.2</v>
       </c>
       <c r="H35" s="4">
         <f>IF(M35 - M34 = 0, "", M35 - M34)</f>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" s="4" t="n">
         <v>2</v>
@@ -2384,11 +2384,11 @@
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>Моцарелла для пиццы «Fine Life», 45%, 0,37 кг, т/ф, (6 шт)</t>
+          <t>Моцарелла для пиццы "Фермерская коллекция", 45%, 0,2 кг, т/ф</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
-        <v>64</v>
+        <v>86.79999999999995</v>
       </c>
       <c r="H36" s="4">
         <f>IF(M36 - M35 = 0, "", M36 - M35)</f>
@@ -3106,7 +3106,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3171,7 +3171,7 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>6</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="6" t="n">
         <v>6</v>
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="G4" s="6" t="n">
-        <v>64</v>
+        <v>64.5</v>
       </c>
       <c r="H4" s="6">
         <f>IF(M4 - M3 = 0, "", M4 - M3)</f>
@@ -3333,7 +3333,7 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="6" t="n">
         <v>6</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6" t="n">
         <v>6</v>
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="G6" s="6" t="n">
-        <v>335</v>
+        <v>334.8</v>
       </c>
       <c r="H6" s="6">
         <f>IF(M6 - M5 = 0, "", M6 - M5)</f>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="6" t="n">
         <v>6</v>
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="G7" s="6" t="n">
-        <v>449</v>
+        <v>448.7</v>
       </c>
       <c r="H7" s="6">
         <f>IF(M7 - M6 = 0, "", M7 - M6)</f>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>9</v>
@@ -3656,330 +3656,307 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="n">
+      <c r="A11" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3.6 Альче </t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>Чильеджина</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>Моцарелла Чильеджина в воде "Unagrande", 50%, 0,125, ф/п, (8 шт)</t>
+        </is>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="6">
+        <f>IF(M11 - M10 = 0, "", M11 - M10)</f>
+        <v/>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6">
+        <f>IF(I11 = "-", -D10,G11)</f>
+        <v/>
+      </c>
+      <c r="K11" s="6">
+        <f>IF(I11 = "-", SUM(J$2:J11), 0)</f>
+        <v/>
+      </c>
+      <c r="L11" s="6">
+        <f>IF(I11="-",1,0)</f>
+        <v/>
+      </c>
+      <c r="M11" s="6">
+        <f>IF(K11 = 0, M10, K11)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H12" s="3">
+        <f>IF(M12 - M11 = 0, "", M12 - M11)</f>
+        <v/>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J12" s="3">
+        <f>IF(I12 = "-", -D11,G12)</f>
+        <v/>
+      </c>
+      <c r="K12" s="3">
+        <f>IF(I12 = "-", SUM(J$2:J12), 0)</f>
+        <v/>
+      </c>
+      <c r="L12" s="3">
+        <f>IF(I12="-",1,0)</f>
+        <v/>
+      </c>
+      <c r="M12" s="3">
+        <f>IF(K12 = 0, M11, K12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B13" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">3.6 Альче </t>
         </is>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D13" s="6" t="n">
         <v>1000</v>
       </c>
-      <c r="E11" s="7" t="inlineStr">
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>Чильеджина</t>
+        </is>
+      </c>
+      <c r="F13" s="6" t="inlineStr">
+        <is>
+          <t>Моцарелла Чильеджина в воде "Unagrande", 50%, 0,125, ф/п, (8 шт)</t>
+        </is>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="6">
+        <f>IF(M13 - M12 = 0, "", M13 - M12)</f>
+        <v/>
+      </c>
+      <c r="I13" s="6" t="inlineStr"/>
+      <c r="J13" s="6">
+        <f>IF(I13 = "-", -D12,G13)</f>
+        <v/>
+      </c>
+      <c r="K13" s="6">
+        <f>IF(I13 = "-", SUM(J$2:J13), 0)</f>
+        <v/>
+      </c>
+      <c r="L13" s="6">
+        <f>IF(I13="-",1,0)</f>
+        <v/>
+      </c>
+      <c r="M13" s="6">
+        <f>IF(K13 = 0, M12, K13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H14" s="3">
+        <f>IF(M14 - M13 = 0, "", M14 - M13)</f>
+        <v/>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J14" s="3">
+        <f>IF(I14 = "-", -D13,G14)</f>
+        <v/>
+      </c>
+      <c r="K14" s="3">
+        <f>IF(I14 = "-", SUM(J$2:J14), 0)</f>
+        <v/>
+      </c>
+      <c r="L14" s="3">
+        <f>IF(I14="-",1,0)</f>
+        <v/>
+      </c>
+      <c r="M14" s="3">
+        <f>IF(K14 = 0, M13, K14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr"/>
+      <c r="B16" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3.3 Альче </t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="7" t="inlineStr">
         <is>
           <t>Фиор Ди Латте</t>
         </is>
       </c>
-      <c r="F11" s="7" t="inlineStr">
-        <is>
-          <t>Моцарелла Фиор ди латте в воде "Unagrande", 50%, 0,125 кг, ф/п, (8 шт)</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="H11" s="7">
-        <f>IF(M11 - M10 = 0, "", M11 - M10)</f>
-        <v/>
-      </c>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7">
-        <f>IF(I11 = "-", -D10,G11)</f>
-        <v/>
-      </c>
-      <c r="K11" s="7">
-        <f>IF(I11 = "-", SUM(J$2:J11), 0)</f>
-        <v/>
-      </c>
-      <c r="L11" s="7">
-        <f>IF(I11="-",1,0)</f>
-        <v/>
-      </c>
-      <c r="M11" s="7">
-        <f>IF(K11 = 0, M10, K11)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="n">
-        <v>17</v>
-      </c>
-      <c r="B12" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3.6 Альче </t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="n">
+      <c r="F16" s="7" t="inlineStr">
+        <is>
+          <t>Моцарелла сердечки в воде "Unagrande", 45%, 0,125 кг, ф/п, (8 шт)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr"/>
+      <c r="B17" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3.3 Альче </t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="n">
         <v>1000</v>
       </c>
-      <c r="E12" s="6" t="inlineStr">
+      <c r="E17" s="6" t="inlineStr">
         <is>
           <t>Чильеджина</t>
         </is>
       </c>
-      <c r="F12" s="6" t="inlineStr">
-        <is>
-          <t>Моцарелла Чильеджина в воде "Unagrande", 50%, 0,125, ф/п, (8 шт)</t>
-        </is>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>900</v>
-      </c>
-      <c r="H12" s="6">
-        <f>IF(M12 - M11 = 0, "", M12 - M11)</f>
-        <v/>
-      </c>
-      <c r="I12" s="6" t="inlineStr"/>
-      <c r="J12" s="6">
-        <f>IF(I12 = "-", -D11,G12)</f>
-        <v/>
-      </c>
-      <c r="K12" s="6">
-        <f>IF(I12 = "-", SUM(J$2:J12), 0)</f>
-        <v/>
-      </c>
-      <c r="L12" s="6">
-        <f>IF(I12="-",1,0)</f>
-        <v/>
-      </c>
-      <c r="M12" s="6">
-        <f>IF(K12 = 0, M11, K12)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H13" s="3">
-        <f>IF(M13 - M12 = 0, "", M13 - M12)</f>
-        <v/>
-      </c>
-      <c r="I13" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J13" s="3">
-        <f>IF(I13 = "-", -D12,G13)</f>
-        <v/>
-      </c>
-      <c r="K13" s="3">
-        <f>IF(I13 = "-", SUM(J$2:J13), 0)</f>
-        <v/>
-      </c>
-      <c r="L13" s="3">
-        <f>IF(I13="-",1,0)</f>
-        <v/>
-      </c>
-      <c r="M13" s="3">
-        <f>IF(K13 = 0, M12, K13)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="n">
-        <v>18</v>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3.6 Альче </t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="n">
+      <c r="F17" s="6" t="inlineStr">
+        <is>
+          <t>Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr"/>
+      <c r="B18" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" s="7" t="inlineStr">
+        <is>
+          <t>3.3 Альче без лактозы</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="E14" s="6" t="inlineStr">
-        <is>
-          <t>Чильеджина</t>
-        </is>
-      </c>
-      <c r="F14" s="6" t="inlineStr">
-        <is>
-          <t>Моцарелла Чильеджина в воде "Unagrande", 50%, 0,125, ф/п, (8 шт)</t>
-        </is>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H14" s="6">
-        <f>IF(M14 - M13 = 0, "", M14 - M13)</f>
-        <v/>
-      </c>
-      <c r="I14" s="6" t="inlineStr"/>
-      <c r="J14" s="6">
-        <f>IF(I14 = "-", -D13,G14)</f>
-        <v/>
-      </c>
-      <c r="K14" s="6">
-        <f>IF(I14 = "-", SUM(J$2:J14), 0)</f>
-        <v/>
-      </c>
-      <c r="L14" s="6">
-        <f>IF(I14="-",1,0)</f>
-        <v/>
-      </c>
-      <c r="M14" s="6">
-        <f>IF(K14 = 0, M13, K14)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H15" s="3">
-        <f>IF(M15 - M14 = 0, "", M15 - M14)</f>
-        <v/>
-      </c>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J15" s="3">
-        <f>IF(I15 = "-", -D14,G15)</f>
-        <v/>
-      </c>
-      <c r="K15" s="3">
-        <f>IF(I15 = "-", SUM(J$2:J15), 0)</f>
-        <v/>
-      </c>
-      <c r="L15" s="3">
-        <f>IF(I15="-",1,0)</f>
-        <v/>
-      </c>
-      <c r="M15" s="3">
-        <f>IF(K15 = 0, M14, K15)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="7" t="inlineStr"/>
-      <c r="B17" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3.3 Альче </t>
-        </is>
-      </c>
-      <c r="D17" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E17" s="7" t="inlineStr">
+      <c r="E18" s="7" t="inlineStr">
         <is>
           <t>Фиор Ди Латте</t>
         </is>
       </c>
-      <c r="F17" s="7" t="inlineStr">
-        <is>
-          <t>Моцарелла сердечки в воде "Unagrande", 45%, 0,125 кг, ф/п, (8 шт)</t>
-        </is>
-      </c>
-      <c r="G17" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="inlineStr"/>
-      <c r="B18" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3.3 Альче </t>
-        </is>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E18" s="6" t="inlineStr">
-        <is>
-          <t>Чильеджина</t>
-        </is>
-      </c>
-      <c r="F18" s="6" t="inlineStr">
-        <is>
-          <t>Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="G18" s="6" t="n">
+      <c r="F18" s="7" t="inlineStr">
+        <is>
+          <t>Моцарелла в воде Фиор Ди Латте без лактозы "Unagrande", 45%, 0,125 кг, ф/п, (8 шт)</t>
+        </is>
+      </c>
+      <c r="G18" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4003,7 +3980,7 @@
       </c>
       <c r="F19" s="7" t="inlineStr">
         <is>
-          <t>Моцарелла в воде Фиор Ди Латте без лактозы "Unagrande", 45%, 0,125 кг, ф/п, (8 шт)</t>
+          <t>Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125 кг, ф/п (8 шт)</t>
         </is>
       </c>
       <c r="G19" s="7" t="n">
@@ -4013,11 +3990,11 @@
     <row r="20">
       <c r="A20" s="7" t="inlineStr"/>
       <c r="B20" s="7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="7" t="inlineStr">
         <is>
-          <t>3.3 Альче без лактозы</t>
+          <t xml:space="preserve">3.3 Сакко </t>
         </is>
       </c>
       <c r="D20" s="7" t="n">
@@ -4030,7 +4007,7 @@
       </c>
       <c r="F20" s="7" t="inlineStr">
         <is>
-          <t>Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125 кг, ф/п (8 шт)</t>
+          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="G20" s="7" t="n">
@@ -4057,7 +4034,7 @@
       </c>
       <c r="F21" s="7" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
+          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,125 кг, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="G21" s="7" t="n">
@@ -4084,7 +4061,7 @@
       </c>
       <c r="F22" s="7" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,125 кг, ф/п, (8 шт)</t>
+          <t>Моцарелла Фиор ди Латте в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
         </is>
       </c>
       <c r="G22" s="7" t="n">
@@ -4111,7 +4088,7 @@
       </c>
       <c r="F23" s="7" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор ди Латте в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
+          <t>Моцарелла Фиор ди Латте в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
         </is>
       </c>
       <c r="G23" s="7" t="n">
@@ -4138,7 +4115,7 @@
       </c>
       <c r="F24" s="7" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор ди Латте в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
+          <t>Моцарелла Фиор ди латте в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
         </is>
       </c>
       <c r="G24" s="7" t="n">
@@ -4165,7 +4142,7 @@
       </c>
       <c r="F25" s="7" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор ди латте в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
+          <t>Моцарелла в воде Фиор Ди Латте "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
         </is>
       </c>
       <c r="G25" s="7" t="n">
@@ -4192,7 +4169,7 @@
       </c>
       <c r="F26" s="7" t="inlineStr">
         <is>
-          <t>Моцарелла в воде Фиор Ди Латте "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
+          <t>Моцарелла в воде Фиор ди Латте "Aventino", 45%, 0,1 кг, ф/п</t>
         </is>
       </c>
       <c r="G26" s="7" t="n">
@@ -4327,37 +4304,37 @@
       </c>
       <c r="F31" s="6" t="inlineStr">
         <is>
+          <t>Моцарелла в воде Чильеджина "Aventino", 45%, 0,1 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="G31" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr"/>
+      <c r="B32" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C32" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3.3 Сакко </t>
+        </is>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="6" t="inlineStr">
+        <is>
+          <t>Чильеджина</t>
+        </is>
+      </c>
+      <c r="F32" s="6" t="inlineStr">
+        <is>
           <t>Моцарелла в воде Чильеджина "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
         </is>
       </c>
-      <c r="G31" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr"/>
-      <c r="B32" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3.6 Альче </t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>Качокавалло</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>Качокавалло "Unagrande" (ОК), 45%, кг</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4381,7 +4358,7 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>Качокавалло "Unagrande", 45%, 0,26 кг, в/у, (8 шт)</t>
+          <t>Качокавалло "Unagrande" (ОК), 45%, кг</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
@@ -4408,37 +4385,37 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
+          <t>Качокавалло "Unagrande", 45%, 0,26 кг, в/у, (8 шт)</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr"/>
+      <c r="B35" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3.6 Альче </t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>Качокавалло</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
           <t>Качокавалло "Unagrande", 45%, кг</t>
         </is>
       </c>
-      <c r="G34" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7" t="inlineStr"/>
-      <c r="B35" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C35" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3.6 Альче </t>
-        </is>
-      </c>
-      <c r="D35" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E35" s="7" t="inlineStr">
-        <is>
-          <t>Фиор Ди Латте</t>
-        </is>
-      </c>
-      <c r="F35" s="7" t="inlineStr">
-        <is>
-          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="G35" s="7" t="n">
+      <c r="G35" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4462,37 +4439,64 @@
       </c>
       <c r="F36" s="7" t="inlineStr">
         <is>
+          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="G36" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="inlineStr"/>
+      <c r="B37" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3.6 Альче </t>
+        </is>
+      </c>
+      <c r="D37" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E37" s="7" t="inlineStr">
+        <is>
+          <t>Фиор Ди Латте</t>
+        </is>
+      </c>
+      <c r="F37" s="7" t="inlineStr">
+        <is>
           <t>Моцарелла Фиор ди латте в воде "Unagrande", 50%, 0,125 кг, ф/п, (8 шт)</t>
         </is>
       </c>
-      <c r="G36" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="6" t="inlineStr"/>
-      <c r="B37" s="6" t="n">
+      <c r="G37" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="inlineStr"/>
+      <c r="B38" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="C37" s="6" t="inlineStr">
+      <c r="C38" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">3.6 Альче </t>
         </is>
       </c>
-      <c r="D37" s="6" t="n">
+      <c r="D38" s="6" t="n">
         <v>1000</v>
       </c>
-      <c r="E37" s="6" t="inlineStr">
+      <c r="E38" s="6" t="inlineStr">
         <is>
           <t>Чильеджина</t>
         </is>
       </c>
-      <c r="F37" s="6" t="inlineStr">
+      <c r="F38" s="6" t="inlineStr">
         <is>
           <t>Моцарелла Чильеджина в воде "Unagrande", 50%, 0,125, ф/п, (8 шт)</t>
         </is>
       </c>
-      <c r="G37" s="6" t="n">
+      <c r="G38" s="6" t="n">
         <v>0</v>
       </c>
     </row>
